--- a/Data_preparation/datasets/final_data/CADENCE_DESIGN_SYS_INC.xlsx
+++ b/Data_preparation/datasets/final_data/CADENCE_DESIGN_SYS_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42007</v>
       </c>
       <c r="D2">
-        <v>77.98999786376953</v>
+        <v>19.14999961853028</v>
       </c>
       <c r="E2">
-        <v>83.45999908447266</v>
+        <v>17.98999977111816</v>
       </c>
       <c r="F2">
-        <v>85.66000366210938</v>
+        <v>19.23999977111816</v>
       </c>
       <c r="G2">
-        <v>74.40000152587891</v>
+        <v>17.68000030517578</v>
       </c>
       <c r="H2">
-        <v>50845151</v>
+        <v>272490000</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>5511917600</v>
@@ -891,22 +780,22 @@
         <v>42098</v>
       </c>
       <c r="D3">
-        <v>32.50155454136809</v>
+        <v>18.44000053405762</v>
       </c>
       <c r="E3">
-        <v>32.94282531738281</v>
+        <v>18.64999961853028</v>
       </c>
       <c r="F3">
-        <v>34.21047339167337</v>
+        <v>19.82999992370605</v>
       </c>
       <c r="G3">
-        <v>32.26888374560449</v>
+        <v>17.77000045776367</v>
       </c>
       <c r="H3">
-        <v>450687724</v>
+        <v>272490000</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>5407994000</v>
@@ -1019,22 +908,22 @@
         <v>42189</v>
       </c>
       <c r="D4">
-        <v>19.36546186976121</v>
+        <v>19.80999946594238</v>
       </c>
       <c r="E4">
-        <v>20.08906555175781</v>
+        <v>20.96999931335449</v>
       </c>
       <c r="F4">
-        <v>20.242831549833</v>
+        <v>21.13999938964844</v>
       </c>
       <c r="G4">
-        <v>19.17551655018982</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="H4">
-        <v>174270076</v>
+        <v>272490000</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>5666149280</v>
@@ -1147,22 +1036,22 @@
         <v>42280</v>
       </c>
       <c r="D5">
-        <v>68.44008297911779</v>
+        <v>20.73999977111816</v>
       </c>
       <c r="E5">
-        <v>76.90107727050781</v>
+        <v>22.21999931335449</v>
       </c>
       <c r="F5">
-        <v>78.55369160257169</v>
+        <v>23.29999923706055</v>
       </c>
       <c r="G5">
-        <v>67.96507621452463</v>
+        <v>20.07999992370605</v>
       </c>
       <c r="H5">
-        <v>952000000</v>
+        <v>272490000</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>6063617800</v>
@@ -1275,22 +1164,22 @@
         <v>42371</v>
       </c>
       <c r="D6">
-        <v>6.107999801635742</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>5.627999782562256</v>
+        <v>19.55999946594238</v>
       </c>
       <c r="F6">
-        <v>6.197999954223633</v>
+        <v>20.63999938964844</v>
       </c>
       <c r="G6">
-        <v>4.728000164031982</v>
+        <v>18.31999969482422</v>
       </c>
       <c r="H6">
-        <v>766266033</v>
+        <v>272490000</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>6190891760</v>
@@ -1403,22 +1292,22 @@
         <v>42462</v>
       </c>
       <c r="D7">
-        <v>113.053060611574</v>
+        <v>23.48999977111816</v>
       </c>
       <c r="E7">
-        <v>116.8595962524414</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="F7">
-        <v>120.0499278661556</v>
+        <v>23.88999938964844</v>
       </c>
       <c r="G7">
-        <v>105.6586426163339</v>
+        <v>22.79000091552734</v>
       </c>
       <c r="H7">
-        <v>2168962480</v>
+        <v>272490000</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>7218663120</v>
@@ -1531,22 +1420,22 @@
         <v>42553</v>
       </c>
       <c r="D8">
-        <v>13.19996774679334</v>
+        <v>24.29999923706055</v>
       </c>
       <c r="E8">
-        <v>13.69067287445068</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="F8">
-        <v>14.06851604737382</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="G8">
-        <v>12.75833331909089</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="H8">
-        <v>171080665</v>
+        <v>272490000</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>7335015560</v>
@@ -1659,22 +1548,22 @@
         <v>42644</v>
       </c>
       <c r="D9">
-        <v>49.90532904401199</v>
+        <v>25.5</v>
       </c>
       <c r="E9">
-        <v>48.90722274780273</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="F9">
-        <v>51.30454387702167</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>45.00807712847811</v>
+        <v>24.98999977111816</v>
       </c>
       <c r="H9">
-        <v>60498713</v>
+        <v>272490000</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>7463414670</v>
@@ -1787,22 +1676,22 @@
         <v>42735</v>
       </c>
       <c r="D10">
-        <v>45.97999954223633</v>
+        <v>25.43000030517578</v>
       </c>
       <c r="E10">
-        <v>53.06000137329102</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="F10">
-        <v>53.20000076293945</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="G10">
-        <v>45.61000061035156</v>
+        <v>25.23999977111816</v>
       </c>
       <c r="H10">
-        <v>50476952</v>
+        <v>272490000</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>7230952300</v>
@@ -1915,22 +1804,22 @@
         <v>42826</v>
       </c>
       <c r="D11">
-        <v>39.22581140273195</v>
+        <v>31.39999961853028</v>
       </c>
       <c r="E11">
-        <v>39.47163009643555</v>
+        <v>32.56999969482422</v>
       </c>
       <c r="F11">
-        <v>39.55064372641578</v>
+        <v>33.61000061035156</v>
       </c>
       <c r="G11">
-        <v>38.41811614637533</v>
+        <v>30.80999946594238</v>
       </c>
       <c r="H11">
-        <v>2850792605</v>
+        <v>272490000</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>8753346600</v>
@@ -2043,22 +1932,22 @@
         <v>42917</v>
       </c>
       <c r="D12">
-        <v>102.0133622053498</v>
+        <v>33.58000183105469</v>
       </c>
       <c r="E12">
-        <v>96.09502410888672</v>
+        <v>36.90000152587891</v>
       </c>
       <c r="F12">
-        <v>103.6407392657914</v>
+        <v>37.5099983215332</v>
       </c>
       <c r="G12">
-        <v>95.4108561422248</v>
+        <v>32.84999847412109</v>
       </c>
       <c r="H12">
-        <v>931519242</v>
+        <v>272490000</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>9363837490</v>
@@ -2171,22 +2060,22 @@
         <v>43008</v>
       </c>
       <c r="D13">
-        <v>34.39338093652559</v>
+        <v>39.79000091552734</v>
       </c>
       <c r="E13">
-        <v>33.61638259887695</v>
+        <v>43.15999984741211</v>
       </c>
       <c r="F13">
-        <v>35.08107037354011</v>
+        <v>43.22999954223633</v>
       </c>
       <c r="G13">
-        <v>32.32138309818511</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="H13">
-        <v>457000000</v>
+        <v>272490000</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>11059533470</v>
@@ -2299,22 +2188,22 @@
         <v>43099</v>
       </c>
       <c r="D14">
-        <v>8.751999855041504</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>9.208000183105469</v>
+        <v>44.86000061035156</v>
       </c>
       <c r="F14">
-        <v>9.28600025177002</v>
+        <v>46</v>
       </c>
       <c r="G14">
-        <v>8.696000099182129</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="H14">
-        <v>766266033</v>
+        <v>272490000</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>11808295200</v>
@@ -2415,22 +2304,22 @@
         <v>43190</v>
       </c>
       <c r="D15">
-        <v>35.97240561616163</v>
+        <v>36.68999862670898</v>
       </c>
       <c r="E15">
-        <v>31.91368293762207</v>
+        <v>40.06000137329102</v>
       </c>
       <c r="F15">
-        <v>36.75260893317965</v>
+        <v>41.4900016784668</v>
       </c>
       <c r="G15">
-        <v>31.53188151649943</v>
+        <v>35.4900016784668</v>
       </c>
       <c r="H15">
-        <v>5186523104</v>
+        <v>272490000</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>10401093130</v>
@@ -2543,22 +2432,22 @@
         <v>43281</v>
       </c>
       <c r="D16">
-        <v>22.36372947692871</v>
+        <v>42.95000076293945</v>
       </c>
       <c r="E16">
-        <v>22.87315368652344</v>
+        <v>44.09000015258789</v>
       </c>
       <c r="F16">
-        <v>25.01273536682129</v>
+        <v>46.9900016784668</v>
       </c>
       <c r="G16">
-        <v>22.00713157653809</v>
+        <v>42.84000015258789</v>
       </c>
       <c r="H16">
-        <v>60308678</v>
+        <v>272490000</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>12209348860</v>
@@ -2671,22 +2560,22 @@
         <v>43372</v>
       </c>
       <c r="D17">
-        <v>40.01662959399956</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="E17">
-        <v>40.09360122680664</v>
+        <v>44.56999969482422</v>
       </c>
       <c r="F17">
-        <v>42.52247987457982</v>
+        <v>47.04000091552734</v>
       </c>
       <c r="G17">
-        <v>36.22792094161961</v>
+        <v>39.08000183105469</v>
       </c>
       <c r="H17">
-        <v>4757218036</v>
+        <v>272490000</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>12816858560</v>
@@ -2799,22 +2688,22 @@
         <v>43463</v>
       </c>
       <c r="D18">
-        <v>42.82212632249508</v>
+        <v>42.65000152587891</v>
       </c>
       <c r="E18">
-        <v>46.75239944458008</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="F18">
-        <v>46.95784665825049</v>
+        <v>48.16999816894531</v>
       </c>
       <c r="G18">
-        <v>41.83955640128374</v>
+        <v>41.43000030517578</v>
       </c>
       <c r="H18">
-        <v>450687724</v>
+        <v>272490000</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>12228034280</v>
@@ -2915,22 +2804,22 @@
         <v>43554</v>
       </c>
       <c r="D19">
-        <v>83.62000274658203</v>
+        <v>65.08000183105469</v>
       </c>
       <c r="E19">
-        <v>104.0299987792969</v>
+        <v>69.37999725341797</v>
       </c>
       <c r="F19">
-        <v>104.9800033569336</v>
+        <v>69.69000244140625</v>
       </c>
       <c r="G19">
-        <v>82.03099822998047</v>
+        <v>62.52000045776367</v>
       </c>
       <c r="H19">
-        <v>168459019</v>
+        <v>272490000</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>17807251350</v>
@@ -3043,22 +2932,22 @@
         <v>43645</v>
       </c>
       <c r="D20">
-        <v>14.72999954223633</v>
+        <v>72.55999755859375</v>
       </c>
       <c r="E20">
-        <v>16.79999923706055</v>
+        <v>73.91000366210938</v>
       </c>
       <c r="F20">
-        <v>18.36000061035156</v>
+        <v>77.08000183105469</v>
       </c>
       <c r="G20">
-        <v>13.96000003814697</v>
+        <v>71.09999847412109</v>
       </c>
       <c r="H20">
-        <v>1435682333</v>
+        <v>272490000</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>19899734300</v>
@@ -3171,22 +3060,22 @@
         <v>43736</v>
       </c>
       <c r="D21">
-        <v>42.51583583355016</v>
+        <v>66.34999847412109</v>
       </c>
       <c r="E21">
-        <v>42.25590896606445</v>
+        <v>65.34999847412109</v>
       </c>
       <c r="F21">
-        <v>43.8557984628152</v>
+        <v>70.5</v>
       </c>
       <c r="G21">
-        <v>39.92553545962458</v>
+        <v>62.40999984741211</v>
       </c>
       <c r="H21">
-        <v>539679667</v>
+        <v>272490000</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>18265975600</v>
@@ -3299,22 +3188,22 @@
         <v>43827</v>
       </c>
       <c r="D22">
-        <v>74.30999755859375</v>
+        <v>70.18000030517578</v>
       </c>
       <c r="E22">
-        <v>78.51000213623047</v>
+        <v>72.11000061035156</v>
       </c>
       <c r="F22">
-        <v>80.26000213623047</v>
+        <v>76.30999755859375</v>
       </c>
       <c r="G22">
-        <v>70.55000305175781</v>
+        <v>69.58999633789062</v>
       </c>
       <c r="H22">
-        <v>201104117</v>
+        <v>272490000</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>19722881970</v>
@@ -3427,22 +3316,22 @@
         <v>43918</v>
       </c>
       <c r="D23">
-        <v>26.5</v>
+        <v>63.43000030517578</v>
       </c>
       <c r="E23">
-        <v>30.27000045776367</v>
+        <v>81.12999725341797</v>
       </c>
       <c r="F23">
-        <v>32</v>
+        <v>82.77999877929688</v>
       </c>
       <c r="G23">
-        <v>21.67000007629395</v>
+        <v>62.91999816894531</v>
       </c>
       <c r="H23">
-        <v>2085418676</v>
+        <v>272490000</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>17448863040</v>
@@ -3555,22 +3444,22 @@
         <v>44009</v>
       </c>
       <c r="D24">
-        <v>256.4700012207031</v>
+        <v>95.6999969482422</v>
       </c>
       <c r="E24">
-        <v>280.75</v>
+        <v>109.25</v>
       </c>
       <c r="F24">
-        <v>287.8299865722656</v>
+        <v>109.2600021362305</v>
       </c>
       <c r="G24">
-        <v>250.9499969482422</v>
+        <v>95.23000335693359</v>
       </c>
       <c r="H24">
-        <v>50845151</v>
+        <v>272490000</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>26198908080</v>
@@ -3683,22 +3572,22 @@
         <v>44100</v>
       </c>
       <c r="D25">
-        <v>142.1999969482422</v>
+        <v>107.8499984741211</v>
       </c>
       <c r="E25">
-        <v>135.75</v>
+        <v>109.370002746582</v>
       </c>
       <c r="F25">
-        <v>158.7359924316406</v>
+        <v>118.2200012207031</v>
       </c>
       <c r="G25">
-        <v>133.8099975585938</v>
+        <v>104.4800033569336</v>
       </c>
       <c r="H25">
-        <v>158300823</v>
+        <v>272490000</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>28916513680</v>
@@ -3811,22 +3700,22 @@
         <v>44198</v>
       </c>
       <c r="D26">
-        <v>13.06822869381222</v>
+        <v>136.8899993896484</v>
       </c>
       <c r="E26">
-        <v>12.9540433883667</v>
+        <v>130.3899993896484</v>
       </c>
       <c r="F26">
-        <v>13.96076895395527</v>
+        <v>142.1100006103516</v>
       </c>
       <c r="G26">
-        <v>12.55140375814208</v>
+        <v>127.5599975585938</v>
       </c>
       <c r="H26">
-        <v>24347000000</v>
+        <v>272490000</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>38054556330</v>
@@ -3939,22 +3828,22 @@
         <v>44289</v>
       </c>
       <c r="D27">
-        <v>483.1199951171875</v>
+        <v>138.4600067138672</v>
       </c>
       <c r="E27">
-        <v>508.3399963378906</v>
+        <v>131.7700042724609</v>
       </c>
       <c r="F27">
-        <v>525.4400024414062</v>
+        <v>148.2700042724609</v>
       </c>
       <c r="G27">
-        <v>480.5</v>
+        <v>130.2700042724609</v>
       </c>
       <c r="H27">
-        <v>418600000</v>
+        <v>272490000</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>39472031260</v>
@@ -4067,22 +3956,22 @@
         <v>44380</v>
       </c>
       <c r="D28">
-        <v>578.8200073242188</v>
+        <v>136.0399932861328</v>
       </c>
       <c r="E28">
-        <v>596.02001953125</v>
+        <v>147.6499938964844</v>
       </c>
       <c r="F28">
-        <v>616.4500122070312</v>
+        <v>148.1199951171875</v>
       </c>
       <c r="G28">
-        <v>543.1699829101562</v>
+        <v>135.0399932861328</v>
       </c>
       <c r="H28">
-        <v>52693110</v>
+        <v>272490000</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>38383874100</v>
@@ -4195,22 +4084,22 @@
         <v>44471</v>
       </c>
       <c r="D29">
-        <v>604.239990234375</v>
+        <v>152.3399963378906</v>
       </c>
       <c r="E29">
-        <v>690.3099975585938</v>
+        <v>173.1100006103516</v>
       </c>
       <c r="F29">
-        <v>690.969970703125</v>
+        <v>175.0800018310547</v>
       </c>
       <c r="G29">
-        <v>594.6799926757812</v>
+        <v>145.8399963378906</v>
       </c>
       <c r="H29">
-        <v>424926346</v>
+        <v>272490000</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>42350107800</v>
@@ -4323,22 +4212,22 @@
         <v>44562</v>
       </c>
       <c r="D30">
-        <v>325.0862195438712</v>
+        <v>185.6799926757812</v>
       </c>
       <c r="E30">
-        <v>301.4620971679688</v>
+        <v>152.1399993896484</v>
       </c>
       <c r="F30">
-        <v>327.6551072192646</v>
+        <v>188.5700073242188</v>
       </c>
       <c r="G30">
-        <v>267.6011489591179</v>
+        <v>136.6199951171875</v>
       </c>
       <c r="H30">
-        <v>7433166379</v>
+        <v>272490000</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>51645225350</v>
@@ -4451,22 +4340,22 @@
         <v>44653</v>
       </c>
       <c r="D31">
-        <v>421.9831085808795</v>
+        <v>165</v>
       </c>
       <c r="E31">
-        <v>415.1985778808594</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="F31">
-        <v>450.9733274615733</v>
+        <v>168.7299957275391</v>
       </c>
       <c r="G31">
-        <v>408.5746965536123</v>
+        <v>147.2100067138672</v>
       </c>
       <c r="H31">
-        <v>143182982</v>
+        <v>272490000</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>45935161680</v>
@@ -4579,22 +4468,22 @@
         <v>44744</v>
       </c>
       <c r="D32">
-        <v>47.91999816894531</v>
+        <v>149.7599945068359</v>
       </c>
       <c r="E32">
-        <v>61.5</v>
+        <v>186.0800018310547</v>
       </c>
       <c r="F32">
-        <v>61.63000106811523</v>
+        <v>186.5800018310547</v>
       </c>
       <c r="G32">
-        <v>43.40999984741211</v>
+        <v>147</v>
       </c>
       <c r="H32">
-        <v>136895573</v>
+        <v>272490000</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>41264576760</v>
@@ -4707,22 +4596,22 @@
         <v>44835</v>
       </c>
       <c r="D33">
-        <v>89.61000061035156</v>
+        <v>164.3899993896484</v>
       </c>
       <c r="E33">
-        <v>80.51000213623047</v>
+        <v>151.3899993896484</v>
       </c>
       <c r="F33">
-        <v>97.31400299072266</v>
+        <v>174.3300018310547</v>
       </c>
       <c r="G33">
-        <v>75.53500366210938</v>
+        <v>142.3399963378906</v>
       </c>
       <c r="H33">
-        <v>323270704</v>
+        <v>272490000</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>44758574100</v>
@@ -4835,22 +4724,22 @@
         <v>44926</v>
       </c>
       <c r="D34">
-        <v>26.71999931335449</v>
+        <v>162.8300018310547</v>
       </c>
       <c r="E34">
-        <v>28.72999954223633</v>
+        <v>182.8300018310547</v>
       </c>
       <c r="F34">
-        <v>29.72999954223633</v>
+        <v>186.2400054931641</v>
       </c>
       <c r="G34">
-        <v>26.64999961853028</v>
+        <v>154.8800048828125</v>
       </c>
       <c r="H34">
-        <v>178998669</v>
+        <v>272490000</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>44066122240</v>
@@ -4963,22 +4852,22 @@
         <v>45016</v>
       </c>
       <c r="D35">
-        <v>261.1884929516806</v>
+        <v>209</v>
       </c>
       <c r="E35">
-        <v>225.4617156982422</v>
+        <v>209.4499969482422</v>
       </c>
       <c r="F35">
-        <v>262.5264343168398</v>
+        <v>217.6699981689453</v>
       </c>
       <c r="G35">
-        <v>223.9783523558658</v>
+        <v>194.009994506836</v>
       </c>
       <c r="H35">
-        <v>60498713</v>
+        <v>272490000</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>57341964600</v>
@@ -5091,22 +4980,22 @@
         <v>45107</v>
       </c>
       <c r="D36">
-        <v>18.42000007629395</v>
+        <v>234.3800048828125</v>
       </c>
       <c r="E36">
-        <v>19.04000091552734</v>
+        <v>234.009994506836</v>
       </c>
       <c r="F36">
-        <v>19.38999938964844</v>
+        <v>248.1600036621093</v>
       </c>
       <c r="G36">
-        <v>17.57999992370605</v>
+        <v>226.1100006103516</v>
       </c>
       <c r="H36">
-        <v>260676335</v>
+        <v>272490000</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>63949851680</v>
@@ -5219,22 +5108,22 @@
         <v>45199</v>
       </c>
       <c r="D37">
-        <v>62.6169871617784</v>
+        <v>235.4400024414062</v>
       </c>
       <c r="E37">
-        <v>64.67326354980469</v>
+        <v>239.8500061035156</v>
       </c>
       <c r="F37">
-        <v>66.63478202323152</v>
+        <v>255.8500061035156</v>
       </c>
       <c r="G37">
-        <v>60.75970456328059</v>
+        <v>227.7700042724609</v>
       </c>
       <c r="H37">
-        <v>212968277</v>
+        <v>272490000</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>63680397000</v>
@@ -5347,22 +5236,22 @@
         <v>45291</v>
       </c>
       <c r="D38">
-        <v>1152.400024414062</v>
+        <v>269.1600036621094</v>
       </c>
       <c r="E38">
-        <v>1198.829956054688</v>
+        <v>288.4599914550781</v>
       </c>
       <c r="F38">
-        <v>1307.140014648438</v>
+        <v>301.6099853515625</v>
       </c>
       <c r="G38">
-        <v>1113.18994140625</v>
+        <v>251.9400024414062</v>
       </c>
       <c r="H38">
-        <v>24003656</v>
+        <v>272490000</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>74101526940</v>
@@ -5475,22 +5364,22 @@
         <v>45382</v>
       </c>
       <c r="D39">
-        <v>104.6600036621094</v>
+        <v>310.4599914550781</v>
       </c>
       <c r="E39">
-        <v>92.98000335693359</v>
+        <v>275.6300048828125</v>
       </c>
       <c r="F39">
-        <v>105.0100021362305</v>
+        <v>317.0899963378906</v>
       </c>
       <c r="G39">
-        <v>90.66999816894533</v>
+        <v>273.489990234375</v>
       </c>
       <c r="H39">
-        <v>168459019</v>
+        <v>272490000</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>84742555920</v>
@@ -5603,22 +5492,22 @@
         <v>45473</v>
       </c>
       <c r="D40">
-        <v>53.97000122070312</v>
+        <v>307.75</v>
       </c>
       <c r="E40">
-        <v>52.63999938964844</v>
+        <v>267.6600036621094</v>
       </c>
       <c r="F40">
-        <v>65.87999725341797</v>
+        <v>322.2799987792969</v>
       </c>
       <c r="G40">
-        <v>50.29000091552734</v>
+        <v>250.8399963378907</v>
       </c>
       <c r="H40">
-        <v>42689006</v>
+        <v>272490000</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>83749238500</v>
@@ -5731,22 +5620,22 @@
         <v>45565</v>
       </c>
       <c r="D41">
-        <v>36.50313191135645</v>
+        <v>273.4400024414062</v>
       </c>
       <c r="E41">
-        <v>39.63111877441406</v>
+        <v>276.1199951171875</v>
       </c>
       <c r="F41">
-        <v>41.15769383693995</v>
+        <v>290.2000122070312</v>
       </c>
       <c r="G41">
-        <v>34.26814654717644</v>
+        <v>246.6000061035156</v>
       </c>
       <c r="H41">
-        <v>171080665</v>
+        <v>272490000</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>74213434600</v>
@@ -5859,22 +5748,22 @@
         <v>45657</v>
       </c>
       <c r="D42">
-        <v>12.96000003814697</v>
+        <v>304.8399963378906</v>
       </c>
       <c r="E42">
-        <v>14.22000026702881</v>
+        <v>297.6199951171875</v>
       </c>
       <c r="F42">
-        <v>15.34500026702881</v>
+        <v>325.0299987792969</v>
       </c>
       <c r="G42">
-        <v>12.61999988555908</v>
+        <v>285.0599975585937</v>
       </c>
       <c r="H42">
-        <v>453568899</v>
+        <v>272490000</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>82405060980</v>
@@ -5987,22 +5876,22 @@
         <v>45747</v>
       </c>
       <c r="D43">
-        <v>187.8600006103516</v>
+        <v>252.6399993896484</v>
       </c>
       <c r="E43">
-        <v>184.4199981689453</v>
+        <v>297.739990234375</v>
       </c>
       <c r="F43">
-        <v>198.3399963378907</v>
+        <v>303.6000061035156</v>
       </c>
       <c r="G43">
-        <v>161.3800048828125</v>
+        <v>221.5599975585937</v>
       </c>
       <c r="H43">
-        <v>10664912097</v>
+        <v>272490000</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>69713887640</v>
@@ -6115,22 +6004,22 @@
         <v>45838</v>
       </c>
       <c r="D44">
-        <v>105.0804770925983</v>
+        <v>306.3500061035156</v>
       </c>
       <c r="E44">
-        <v>103.1780242919922</v>
+        <v>364.5700073242188</v>
       </c>
       <c r="F44">
-        <v>109.3114367486601</v>
+        <v>376.4500122070313</v>
       </c>
       <c r="G44">
-        <v>101.4440230697358</v>
+        <v>304.7300109863281</v>
       </c>
       <c r="H44">
-        <v>199618386</v>
+        <v>272490000</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>84137892300</v>
